--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lama3-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lama3-Sdc2.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.472545</v>
+        <v>10.75879266666667</v>
       </c>
       <c r="H2">
-        <v>13.417635</v>
+        <v>32.276378</v>
       </c>
       <c r="I2">
-        <v>0.8620608569328752</v>
+        <v>0.9290725491349732</v>
       </c>
       <c r="J2">
-        <v>0.8620608569328753</v>
+        <v>0.9290725491349733</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6646083333333334</v>
+        <v>0.971099</v>
       </c>
       <c r="N2">
-        <v>1.993825</v>
+        <v>2.913297</v>
       </c>
       <c r="O2">
-        <v>0.005515555660921567</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="P2">
-        <v>0.005515555660921566</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="Q2">
-        <v>2.972490678208334</v>
+        <v>10.44785279980733</v>
       </c>
       <c r="R2">
-        <v>26.752416103875</v>
+        <v>94.03067519826601</v>
       </c>
       <c r="S2">
-        <v>0.004754744639515016</v>
+        <v>0.007323483785955615</v>
       </c>
       <c r="T2">
-        <v>0.004754744639515016</v>
+        <v>0.007323483785955616</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.472545</v>
+        <v>10.75879266666667</v>
       </c>
       <c r="H3">
-        <v>13.417635</v>
+        <v>32.276378</v>
       </c>
       <c r="I3">
-        <v>0.8620608569328752</v>
+        <v>0.9290725491349732</v>
       </c>
       <c r="J3">
-        <v>0.8620608569328753</v>
+        <v>0.9290725491349733</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>257.478072</v>
       </c>
       <c r="O3">
-        <v>0.7122664414292983</v>
+        <v>0.6966643430097871</v>
       </c>
       <c r="P3">
-        <v>0.7122664414292982</v>
+        <v>0.696664343009787</v>
       </c>
       <c r="Q3">
-        <v>383.86075451108</v>
+        <v>923.3843976203574</v>
       </c>
       <c r="R3">
-        <v>3454.74679059972</v>
+        <v>8310.459578583217</v>
       </c>
       <c r="S3">
-        <v>0.6140170188630704</v>
+        <v>0.6472517170515442</v>
       </c>
       <c r="T3">
-        <v>0.6140170188630704</v>
+        <v>0.6472517170515442</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.472545</v>
+        <v>10.75879266666667</v>
       </c>
       <c r="H4">
-        <v>13.417635</v>
+        <v>32.276378</v>
       </c>
       <c r="I4">
-        <v>0.8620608569328752</v>
+        <v>0.9290725491349732</v>
       </c>
       <c r="J4">
-        <v>0.8620608569328753</v>
+        <v>0.9290725491349733</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.99712866666667</v>
+        <v>36.24916566666667</v>
       </c>
       <c r="N4">
-        <v>101.991386</v>
+        <v>108.747497</v>
       </c>
       <c r="O4">
-        <v>0.2821406925971621</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="P4">
-        <v>0.282140692597162</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="Q4">
-        <v>152.0536878324567</v>
+        <v>389.9972577473185</v>
       </c>
       <c r="R4">
-        <v>1368.48319049211</v>
+        <v>3509.975319725866</v>
       </c>
       <c r="S4">
-        <v>0.2432224472359444</v>
+        <v>0.2733708684843176</v>
       </c>
       <c r="T4">
-        <v>0.2432224472359444</v>
+        <v>0.2733708684843176</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.472545</v>
+        <v>10.75879266666667</v>
       </c>
       <c r="H5">
-        <v>13.417635</v>
+        <v>32.276378</v>
       </c>
       <c r="I5">
-        <v>0.8620608569328752</v>
+        <v>0.9290725491349732</v>
       </c>
       <c r="J5">
-        <v>0.8620608569328753</v>
+        <v>0.9290725491349733</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.009315666666666668</v>
+        <v>0.149372</v>
       </c>
       <c r="N5">
-        <v>0.027947</v>
+        <v>0.448116</v>
       </c>
       <c r="O5">
-        <v>7.73103126180959E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="P5">
-        <v>7.731031261809588E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="Q5">
-        <v>0.04166473837166668</v>
+        <v>1.607062378205333</v>
       </c>
       <c r="R5">
-        <v>0.374982645345</v>
+        <v>14.463561403848</v>
       </c>
       <c r="S5">
-        <v>6.664619434530423E-05</v>
+        <v>0.001126479813155777</v>
       </c>
       <c r="T5">
-        <v>6.664619434530421E-05</v>
+        <v>0.001126479813155777</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,43 +788,43 @@
         <v>0.209246</v>
       </c>
       <c r="H6">
-        <v>0.6277380000000001</v>
+        <v>0.627738</v>
       </c>
       <c r="I6">
-        <v>0.04033112826584784</v>
+        <v>0.01806938014695731</v>
       </c>
       <c r="J6">
-        <v>0.04033112826584784</v>
+        <v>0.01806938014695731</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6646083333333334</v>
+        <v>0.971099</v>
       </c>
       <c r="N6">
-        <v>1.993825</v>
+        <v>2.913297</v>
       </c>
       <c r="O6">
-        <v>0.005515555660921567</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="P6">
-        <v>0.005515555660921566</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="Q6">
-        <v>0.1390666353166667</v>
+        <v>0.203198581354</v>
       </c>
       <c r="R6">
-        <v>1.25159971785</v>
+        <v>1.828787232186</v>
       </c>
       <c r="S6">
-        <v>0.0002224485828180509</v>
+        <v>0.0001424332390960413</v>
       </c>
       <c r="T6">
-        <v>0.0002224485828180509</v>
+        <v>0.0001424332390960413</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>0.209246</v>
       </c>
       <c r="H7">
-        <v>0.6277380000000001</v>
+        <v>0.627738</v>
       </c>
       <c r="I7">
-        <v>0.04033112826584784</v>
+        <v>0.01806938014695731</v>
       </c>
       <c r="J7">
-        <v>0.04033112826584784</v>
+        <v>0.01806938014695731</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>257.478072</v>
       </c>
       <c r="O7">
-        <v>0.7122664414292983</v>
+        <v>0.6966643430097871</v>
       </c>
       <c r="P7">
-        <v>0.7122664414292982</v>
+        <v>0.696664343009787</v>
       </c>
       <c r="Q7">
         <v>17.958752217904</v>
@@ -883,10 +883,10 @@
         <v>161.628769961136</v>
       </c>
       <c r="S7">
-        <v>0.02872650920874403</v>
+        <v>0.01258829284867411</v>
       </c>
       <c r="T7">
-        <v>0.02872650920874403</v>
+        <v>0.0125882928486741</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,13 +912,13 @@
         <v>0.209246</v>
       </c>
       <c r="H8">
-        <v>0.6277380000000001</v>
+        <v>0.627738</v>
       </c>
       <c r="I8">
-        <v>0.04033112826584784</v>
+        <v>0.01806938014695731</v>
       </c>
       <c r="J8">
-        <v>0.04033112826584784</v>
+        <v>0.01806938014695731</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.99712866666667</v>
+        <v>36.24916566666667</v>
       </c>
       <c r="N8">
-        <v>101.991386</v>
+        <v>108.747497</v>
       </c>
       <c r="O8">
-        <v>0.2821406925971621</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="P8">
-        <v>0.282140692597162</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="Q8">
-        <v>7.113763184985335</v>
+        <v>7.584992919087335</v>
       </c>
       <c r="R8">
-        <v>64.02386866486802</v>
+        <v>68.26493627178601</v>
       </c>
       <c r="S8">
-        <v>0.01137905246215129</v>
+        <v>0.005316745337429391</v>
       </c>
       <c r="T8">
-        <v>0.01137905246215129</v>
+        <v>0.00531674533742939</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,43 +974,43 @@
         <v>0.209246</v>
       </c>
       <c r="H9">
-        <v>0.6277380000000001</v>
+        <v>0.627738</v>
       </c>
       <c r="I9">
-        <v>0.04033112826584784</v>
+        <v>0.01806938014695731</v>
       </c>
       <c r="J9">
-        <v>0.04033112826584784</v>
+        <v>0.01806938014695731</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.009315666666666668</v>
+        <v>0.149372</v>
       </c>
       <c r="N9">
-        <v>0.027947</v>
+        <v>0.448116</v>
       </c>
       <c r="O9">
-        <v>7.73103126180959E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="P9">
-        <v>7.731031261809588E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="Q9">
-        <v>0.001949265987333334</v>
+        <v>0.031255493512</v>
       </c>
       <c r="R9">
-        <v>0.01754339388600001</v>
+        <v>0.281299441608</v>
       </c>
       <c r="S9">
-        <v>3.11801213447322E-06</v>
+        <v>2.190872175777534E-05</v>
       </c>
       <c r="T9">
-        <v>3.11801213447322E-06</v>
+        <v>2.190872175777534E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4881936666666666</v>
+        <v>0.5786906666666666</v>
       </c>
       <c r="H10">
-        <v>1.464581</v>
+        <v>1.736072</v>
       </c>
       <c r="I10">
-        <v>0.09409690693684894</v>
+        <v>0.04997267160899686</v>
       </c>
       <c r="J10">
-        <v>0.09409690693684894</v>
+        <v>0.04997267160899686</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6646083333333334</v>
+        <v>0.971099</v>
       </c>
       <c r="N10">
-        <v>1.993825</v>
+        <v>2.913297</v>
       </c>
       <c r="O10">
-        <v>0.005515555660921567</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="P10">
-        <v>0.005515555660921566</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="Q10">
-        <v>0.3244575791472222</v>
+        <v>0.5619659277093333</v>
       </c>
       <c r="R10">
-        <v>2.920118212325</v>
+        <v>5.057693349384</v>
       </c>
       <c r="S10">
-        <v>0.0005189967277307471</v>
+        <v>0.0003939133177598656</v>
       </c>
       <c r="T10">
-        <v>0.0005189967277307469</v>
+        <v>0.0003939133177598656</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.4881936666666666</v>
+        <v>0.5786906666666666</v>
       </c>
       <c r="H11">
-        <v>1.464581</v>
+        <v>1.736072</v>
       </c>
       <c r="I11">
-        <v>0.09409690693684894</v>
+        <v>0.04997267160899686</v>
       </c>
       <c r="J11">
-        <v>0.09409690693684894</v>
+        <v>0.04997267160899686</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>257.478072</v>
       </c>
       <c r="O11">
-        <v>0.7122664414292983</v>
+        <v>0.6966643430097871</v>
       </c>
       <c r="P11">
-        <v>0.7122664414292982</v>
+        <v>0.696664343009787</v>
       </c>
       <c r="Q11">
-        <v>41.89972135198133</v>
+        <v>49.66671904590932</v>
       </c>
       <c r="R11">
-        <v>377.097492167832</v>
+        <v>447.000471413184</v>
       </c>
       <c r="S11">
-        <v>0.06702206905341325</v>
+        <v>0.03481417843492564</v>
       </c>
       <c r="T11">
-        <v>0.06702206905341324</v>
+        <v>0.03481417843492563</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4881936666666666</v>
+        <v>0.5786906666666666</v>
       </c>
       <c r="H12">
-        <v>1.464581</v>
+        <v>1.736072</v>
       </c>
       <c r="I12">
-        <v>0.09409690693684894</v>
+        <v>0.04997267160899686</v>
       </c>
       <c r="J12">
-        <v>0.09409690693684894</v>
+        <v>0.04997267160899686</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.99712866666667</v>
+        <v>36.24916566666667</v>
       </c>
       <c r="N12">
-        <v>101.991386</v>
+        <v>108.747497</v>
       </c>
       <c r="O12">
-        <v>0.2821406925971621</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="P12">
-        <v>0.282140692597162</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="Q12">
-        <v>16.59718289991844</v>
+        <v>20.97705384575378</v>
       </c>
       <c r="R12">
-        <v>149.374646099266</v>
+        <v>188.793484611784</v>
       </c>
       <c r="S12">
-        <v>0.02654856649441326</v>
+        <v>0.014703989102845</v>
       </c>
       <c r="T12">
-        <v>0.02654856649441326</v>
+        <v>0.014703989102845</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4881936666666666</v>
+        <v>0.5786906666666666</v>
       </c>
       <c r="H13">
-        <v>1.464581</v>
+        <v>1.736072</v>
       </c>
       <c r="I13">
-        <v>0.09409690693684894</v>
+        <v>0.04997267160899686</v>
       </c>
       <c r="J13">
-        <v>0.09409690693684894</v>
+        <v>0.04997267160899686</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.009315666666666668</v>
+        <v>0.149372</v>
       </c>
       <c r="N13">
-        <v>0.027947</v>
+        <v>0.448116</v>
       </c>
       <c r="O13">
-        <v>7.73103126180959E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="P13">
-        <v>7.731031261809588E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="Q13">
-        <v>0.004547849467444445</v>
+        <v>0.08644018226133331</v>
       </c>
       <c r="R13">
-        <v>0.040930645207</v>
+        <v>0.7779616403519999</v>
       </c>
       <c r="S13">
-        <v>7.274661291683668E-06</v>
+        <v>6.059075346635785E-05</v>
       </c>
       <c r="T13">
-        <v>7.274661291683667E-06</v>
+        <v>6.059075346635785E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.01821633333333333</v>
+        <v>0.03341333333333333</v>
       </c>
       <c r="H14">
-        <v>0.054649</v>
+        <v>0.10024</v>
       </c>
       <c r="I14">
-        <v>0.003511107864428023</v>
+        <v>0.002885399109072576</v>
       </c>
       <c r="J14">
-        <v>0.003511107864428023</v>
+        <v>0.002885399109072576</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6646083333333334</v>
+        <v>0.971099</v>
       </c>
       <c r="N14">
-        <v>1.993825</v>
+        <v>2.913297</v>
       </c>
       <c r="O14">
-        <v>0.005515555660921567</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="P14">
-        <v>0.005515555660921566</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="Q14">
-        <v>0.01210672693611111</v>
+        <v>0.03244765458666667</v>
       </c>
       <c r="R14">
-        <v>0.108960542425</v>
+        <v>0.29202889128</v>
       </c>
       <c r="S14">
-        <v>1.936571085775221E-05</v>
+        <v>2.274437406527433E-05</v>
       </c>
       <c r="T14">
-        <v>1.936571085775221E-05</v>
+        <v>2.274437406527433E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.01821633333333333</v>
+        <v>0.03341333333333333</v>
       </c>
       <c r="H15">
-        <v>0.054649</v>
+        <v>0.10024</v>
       </c>
       <c r="I15">
-        <v>0.003511107864428023</v>
+        <v>0.002885399109072576</v>
       </c>
       <c r="J15">
-        <v>0.003511107864428023</v>
+        <v>0.002885399109072576</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>257.478072</v>
       </c>
       <c r="O15">
-        <v>0.7122664414292983</v>
+        <v>0.6966643430097871</v>
       </c>
       <c r="P15">
-        <v>0.7122664414292982</v>
+        <v>0.696664343009787</v>
       </c>
       <c r="Q15">
-        <v>1.563435461858667</v>
+        <v>2.867733548586667</v>
       </c>
       <c r="R15">
-        <v>14.070919156728</v>
+        <v>25.80960193728</v>
       </c>
       <c r="S15">
-        <v>0.002500844304070571</v>
+        <v>0.002010154674643072</v>
       </c>
       <c r="T15">
-        <v>0.002500844304070571</v>
+        <v>0.002010154674643071</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.01821633333333333</v>
+        <v>0.03341333333333333</v>
       </c>
       <c r="H16">
-        <v>0.054649</v>
+        <v>0.10024</v>
       </c>
       <c r="I16">
-        <v>0.003511107864428023</v>
+        <v>0.002885399109072576</v>
       </c>
       <c r="J16">
-        <v>0.003511107864428023</v>
+        <v>0.002885399109072576</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.99712866666667</v>
+        <v>36.24916566666667</v>
       </c>
       <c r="N16">
-        <v>101.991386</v>
+        <v>108.747497</v>
       </c>
       <c r="O16">
-        <v>0.2821406925971621</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="P16">
-        <v>0.282140692597162</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="Q16">
-        <v>0.6193030281682222</v>
+        <v>1.211205455475556</v>
       </c>
       <c r="R16">
-        <v>5.573727253514001</v>
+        <v>10.90084909928</v>
       </c>
       <c r="S16">
-        <v>0.0009906264046530651</v>
+        <v>0.0008490015780850006</v>
       </c>
       <c r="T16">
-        <v>0.0009906264046530648</v>
+        <v>0.0008490015780850004</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.03341333333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.10024</v>
+      </c>
+      <c r="I17">
+        <v>0.002885399109072576</v>
+      </c>
+      <c r="J17">
+        <v>0.002885399109072576</v>
+      </c>
+      <c r="K17">
         <v>2</v>
       </c>
-      <c r="F17">
+      <c r="L17">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G17">
-        <v>0.01821633333333333</v>
-      </c>
-      <c r="H17">
-        <v>0.054649</v>
-      </c>
-      <c r="I17">
-        <v>0.003511107864428023</v>
-      </c>
-      <c r="J17">
-        <v>0.003511107864428023</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M17">
-        <v>0.009315666666666668</v>
+        <v>0.149372</v>
       </c>
       <c r="N17">
-        <v>0.027947</v>
+        <v>0.448116</v>
       </c>
       <c r="O17">
-        <v>7.73103126180959E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="P17">
-        <v>7.731031261809588E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="Q17">
-        <v>0.0001696972892222223</v>
+        <v>0.004991016426666666</v>
       </c>
       <c r="R17">
-        <v>0.001527275603</v>
+        <v>0.04491914783999999</v>
       </c>
       <c r="S17">
-        <v>2.714448466347855E-07</v>
+        <v>3.498482279230188E-06</v>
       </c>
       <c r="T17">
-        <v>2.714448466347855E-07</v>
+        <v>3.498482279230188E-06</v>
       </c>
     </row>
   </sheetData>
